--- a/Survey_Data_Tidy.xlsx
+++ b/Survey_Data_Tidy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbelmont/Downloads/tfcb-homework02-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F528FE5-5EC1-EE49-8882-17E15B4F62C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98427D-8338-A340-B183-D3D28A208E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8860" yWindow="460" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,6 +57,9 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>Plot</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t>DO</t>
-  </si>
-  <si>
-    <t>Weight-in-g</t>
   </si>
   <si>
     <t>not-calibrated</t>
@@ -684,7 +684,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -700,19 +700,19 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>38</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>19</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>20</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>21</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>21</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -1544,10 +1544,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>15</v>
@@ -1666,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>15</v>
@@ -1726,10 +1726,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>15</v>
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>15</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="40" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>32</v>
@@ -1906,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>15</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>15</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="48" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>36</v>

--- a/Survey_Data_Tidy.xlsx
+++ b/Survey_Data_Tidy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbelmont/Downloads/tfcb-homework02-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98427D-8338-A340-B183-D3D28A208E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E35196-CE24-3144-AC4B-53D8C0CD80B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8860" yWindow="460" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -692,7 +692,7 @@
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
